--- a/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
+++ b/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
@@ -14,14 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>五金仓库系统存在问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料选择时提供过滤查询功能 ，物料编码、名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>是</t>
   </si>
@@ -46,8 +39,121 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出格式修改，格式见附件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查中</t>
+  </si>
+  <si>
+    <t>是否收费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>需求变更</t>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计系统存在打印模板。具体见附件，缺少部分后续补上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印时去掉预览。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器启动时增加下面任意一个参数：
+ --disable-print-preview
+ --kiosk-printing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未领取</t>
+  </si>
+  <si>
+    <t>支付方式为现金的，不需要打印进账单。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将发票录入查询拆分了两个页面：
+发票录入和发票查询，打印功能属于录入页面。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢管厂系统</t>
+  </si>
+  <si>
+    <t>销售出货单打印去掉右下角页数显示，整天打印需要居中。预览可知道现在未居中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产通知单的耗料和产品都不需要选择产地和材质，领料和入库时需要用户选择。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存余额表和所有报表需要导出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面功能增加现在库存数量：
+四个领料单，销售出货单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改销售退货单打印格式，和出货单格式一致，名称改为退货单。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富侨仓库系统</t>
+  </si>
+  <si>
+    <t>新增需求</t>
+  </si>
+  <si>
+    <t>增加功能，可以查看多种产品一周内出货情况（对应货号的出货情况）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加功能，可以设置每天采购任务，如果未能完成采购任务，显示颜色提醒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加功能（非必要），可以设置货号实际出货日期，用于统计数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,7 +269,2517 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="354">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -263,6 +2879,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>491014</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>47626</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76201</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Object 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561976</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1095376</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Object 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1600201</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1990725</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>490459</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Object 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1133475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1563864</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>495301</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Object 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,56 +3497,1485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="36.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="B3" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="284" priority="181" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="182" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="183" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G5 G9 G15:G39">
+    <cfRule type="cellIs" dxfId="281" priority="184" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="185" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="186" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="278" priority="178" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="179" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="180" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J39">
+    <cfRule type="cellIs" dxfId="275" priority="172" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="173" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="174" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G9 G15:G39">
+    <cfRule type="cellIs" dxfId="272" priority="175" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="176" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="177" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I39 I9:I10">
+    <cfRule type="cellIs" dxfId="269" priority="169" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="170" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="171" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="266" priority="163" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="164" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="165" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="263" priority="166" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="167" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="168" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I3">
+    <cfRule type="cellIs" dxfId="260" priority="160" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="161" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="162" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="257" priority="154" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="155" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="156" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="254" priority="157" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="158" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="159" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="cellIs" dxfId="251" priority="151" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="152" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="153" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="248" priority="148" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="149" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="150" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="245" priority="145" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="146" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="147" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="cellIs" dxfId="242" priority="142" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="143" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="144" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="239" priority="139" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="140" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="141" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="236" priority="136" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="137" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="138" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="233" priority="133" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="134" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="135" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="230" priority="130" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="131" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="132" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="cellIs" dxfId="227" priority="127" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="128" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="129" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="224" priority="124" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="125" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="126" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="221" priority="121" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="122" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="123" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="218" priority="118" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="215" priority="115" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="116" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="117" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="cellIs" dxfId="212" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="209" priority="109" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="110" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="206" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="203" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="200" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="cellIs" dxfId="197" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="191" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="185" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="93" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="179" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="173" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="86" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="87" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="167" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="161" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="155" priority="76" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="77" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="78" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="149" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="143" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="137" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="131" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="125" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="119" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="113" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="107" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="101" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="95" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="89" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="83" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="77" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="65" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -611,26 +4986,153 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"完成,不需要修改,检查中,挂起"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J39">
+      <formula1>"是,否,不需要,未能重现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"是,否,不需要,未能重现"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I39">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C39">
+      <formula1>"支票系统,富侨仓库系统,钢管厂系统"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+      <formula1>"新增需求,需求变更,存在问题"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39">
+      <formula1>"未领取,检查中,完成,不需要修改,挂起"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1043" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1043" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1053" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>485775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1053" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1054" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>485775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1054" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1055" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1600200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1990725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>485775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1055" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1056" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1133475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1562100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1056" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
+++ b/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t>是</t>
   </si>
@@ -88,17 +88,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按要求修改。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览器启动时增加下面任意一个参数：
  --disable-print-preview
  --kiosk-printing</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未领取</t>
   </si>
   <si>
     <t>支付方式为现金的，不需要打印进账单。</t>
@@ -153,6 +146,146 @@
   </si>
   <si>
     <t>增加功能（非必要），可以设置货号实际出货日期，用于统计数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>客户未反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求实施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面功能选择物料或者产品后，显示物料或者产品的库存情况：
+分条制造领料
+拉管制造领料
+轧制委外领料
+返拨委外领料
+销售出货单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库存余额表，增加物料类别展现和过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>按要求修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求实施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面功能修改：
+生产通知单 - 耗料和产品列表去除产地和材质的选择
+分条制造领料 - 可以选择产地和材质
+分条制造入库 - 可以选择产地和材质
+拉管制造领料 - 可以选择产地和材质
+拉管制造入库 - 可以选择产地和材质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面功能增加导出功能，按照展现列表导出xls：
+库存余额表
+盘盈盘亏报表
+应收账明细报表
+委外计划完成情况表
+采购进仓汇总表
+盘盈盘亏报表
+客户对数表
+销售汇总表
+退货汇总表
+进销存明细表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据销售出货单格式修改退货单打印格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为系统库存增加“摘要”纬度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经确认需求：需求分折20141012.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-成品管理-成品出货情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在明细中增加成品退货。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新功能，修改出货通知单和出货对数表数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-成品管理-出货通知单
+仓库管理-成品管理-出货对数单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+  </si>
+  <si>
+    <t>修改委外退货的验收功能，每次验收时，根据验收数量创建验收进货单，并进行提交操作，更新库存数量。未验收完成的单据，可以直接完成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-委外加工-委外退货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加打印功能，格式使用默认的打印格式。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户，产地，材质3个功能筛选功能筛选不到库存，请修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存模块-委外-委外通知单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存模块-库存-库存余额表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题</t>
+  </si>
+  <si>
+    <t>未领取</t>
+  </si>
+  <si>
+    <t>库存模块-委外-轧制委外入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当完成“轧制委外领料单”并保存提交后，“轧制委外入库单”选择委外领料单号，分录的内容不能选择并填写内容，请修复。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务模块-销售发票管理-发票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票审批流程需要修改，提交后直接给财务经理审批。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,11 +398,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="354">
+  <dxfs count="360">
     <dxf>
       <font>
         <condense val="0"/>
@@ -404,48 +540,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -538,90 +632,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -668,48 +678,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -756,6 +724,90 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -779,6 +831,111 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -802,90 +959,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -997,6 +1070,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1020,6 +1114,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1066,90 +1181,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1242,6 +1273,384 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1288,132 +1697,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1460,6 +1743,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1483,6 +1787,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1529,6 +1854,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1573,69 +1940,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1682,6 +1986,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1726,27 +2072,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1793,6 +2118,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1816,48 +2183,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1904,6 +2229,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1927,48 +2294,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2015,6 +2340,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2103,27 +2470,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2147,48 +2493,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2277,48 +2581,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2342,69 +2604,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2428,6 +2627,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2474,48 +2715,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2539,6 +2738,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2562,6 +2803,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2650,6 +2912,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -2673,29 +2956,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -2711,96 +2971,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
       </font>
     </dxf>
     <dxf>
@@ -2887,16 +3057,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>491014</xdr:rowOff>
+          <xdr:rowOff>495300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2924,23 +3094,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2952,13 +3109,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>47626</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>76201</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>523875</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
@@ -2989,23 +3146,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3017,14 +3161,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>561976</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1095376</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>1095375</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>485775</xdr:rowOff>
         </xdr:to>
@@ -3054,23 +3198,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3082,16 +3213,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1600201</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>1600200</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>1990725</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>490459</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3119,23 +3250,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3147,16 +3265,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1563864</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>1562100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>495301</xdr:rowOff>
+          <xdr:rowOff>495300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3184,23 +3302,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3498,10 +3603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3510,17 +3616,18 @@
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3533,32 +3640,35 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3572,25 +3682,32 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>41898</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3604,23 +3721,32 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>41898</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3634,25 +3760,32 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>41898</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3666,23 +3799,32 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>41898</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3696,23 +3838,32 @@
         <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>41898</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3720,29 +3871,38 @@
         <v>41888</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>41903</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3750,29 +3910,38 @@
         <v>41888</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="8">
+        <v>500</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>41903</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3780,305 +3949,561 @@
         <v>41888</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>41903</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="171" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>41888</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>41903</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>41888</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>41917</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>41888</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>41917</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>41888</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>41888</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="J16" s="8">
+        <v>6250</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="L16" s="9">
+        <v>41958</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>41785</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>41792</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41785</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>41797</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41934</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>800</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="9">
+        <v>41945</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41955</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41955</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="L21" s="9">
+        <v>41955</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="57" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41955</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="L22" s="9">
+        <v>41955</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41955</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L23" s="9">
+        <v>41955</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4086,13 +4511,14 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L24" s="9"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4100,13 +4526,14 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L25" s="9"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4114,13 +4541,14 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L26" s="9"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4128,13 +4556,14 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="9"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4142,13 +4571,14 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L28" s="9"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4156,13 +4586,14 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="9"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4170,13 +4601,14 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="9"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4184,13 +4616,14 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L31" s="9"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4198,13 +4631,14 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L32" s="9"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4212,13 +4646,14 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="9"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4226,13 +4661,14 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="9"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4240,13 +4676,14 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L35" s="9"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4254,13 +4691,14 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L36" s="9"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4268,13 +4706,14 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L37" s="9"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4282,13 +4721,14 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="9"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4296,609 +4736,1626 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K2:K8 K10:K12">
+    <cfRule type="cellIs" dxfId="359" priority="367" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="368" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="369" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H12 H16:H19">
+    <cfRule type="cellIs" dxfId="356" priority="370" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="371" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="372" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="353" priority="364" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="365" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="366" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K19">
+    <cfRule type="cellIs" dxfId="350" priority="358" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="359" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="360" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H10 H16:H19">
+    <cfRule type="cellIs" dxfId="347" priority="361" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="362" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="363" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="344" priority="349" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="350" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="351" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="341" priority="352" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="353" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="354" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="338" priority="346" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="347" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="348" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="335" priority="340" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="341" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="342" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="332" priority="343" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="344" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="345" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="329" priority="337" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="338" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="339" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="326" priority="334" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="335" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="336" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="323" priority="331" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="332" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="333" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="320" priority="328" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="329" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="330" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="317" priority="325" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="326" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="327" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="314" priority="322" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="323" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="324" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="311" priority="319" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="320" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="321" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="308" priority="316" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="317" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="318" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="305" priority="313" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="314" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="315" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="302" priority="310" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="311" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="312" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="299" priority="307" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="308" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="309" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="296" priority="304" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="305" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="306" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="293" priority="301" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="302" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="303" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="290" priority="298" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="299" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="300" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="287" priority="295" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="296" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="297" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="284" priority="292" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="293" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="294" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="281" priority="289" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="290" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="291" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="278" priority="286" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="287" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="288" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="275" priority="283" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="284" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="285" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="272" priority="280" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="281" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="282" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="269" priority="277" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="278" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="279" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="266" priority="274" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="275" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="276" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="263" priority="271" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="272" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="273" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="260" priority="268" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="269" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="270" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="257" priority="265" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="266" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="267" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="254" priority="262" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="263" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="264" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="251" priority="259" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="260" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="261" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="248" priority="253" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="254" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="255" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="245" priority="250" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="251" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="252" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="242" priority="247" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="248" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="249" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="239" priority="244" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="245" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="246" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="236" priority="241" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="242" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="243" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="cellIs" dxfId="233" priority="238" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="239" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="240" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="cellIs" dxfId="230" priority="235" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="236" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="237" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="227" priority="190" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="191" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="192" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="cellIs" dxfId="224" priority="229" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="230" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="231" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="221" priority="226" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="227" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="228" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K15">
+    <cfRule type="cellIs" dxfId="218" priority="223" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="224" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="225" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="215" priority="220" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="221" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="222" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="212" priority="217" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="218" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="209" priority="172" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="173" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="174" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="206" priority="211" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="212" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="213" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="203" priority="208" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="209" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="210" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="200" priority="205" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="206" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="207" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="197" priority="202" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="203" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="204" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="194" priority="199" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="200" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="201" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="191" priority="154" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="155" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="156" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="188" priority="193" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="194" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="195" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="185" priority="187" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="188" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="182" priority="184" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="185" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="186" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="179" priority="181" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="182" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="183" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="176" priority="178" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="179" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="180" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="176" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="177" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="cellIs" dxfId="170" priority="142" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="143" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="144" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="167" priority="166" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="168" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="284" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="163" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="165" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 G9 G15:G39">
-    <cfRule type="cellIs" dxfId="281" priority="184" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="cellIs" dxfId="161" priority="160" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="162" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="158" priority="157" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="159" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="152" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="153" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="149" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="150" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="146" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="146" priority="139" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="143" priority="136" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="138" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="140" priority="133" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="135" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="132" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="129" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="126" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="123" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="122" priority="115" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="119" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="111" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="278" priority="178" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="98" priority="64" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="65" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="66" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J39">
-    <cfRule type="cellIs" dxfId="275" priority="172" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H20:H22 H24:H73">
+    <cfRule type="cellIs" dxfId="95" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K73">
+    <cfRule type="cellIs" dxfId="92" priority="52" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="53" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="54" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9 G15:G39">
-    <cfRule type="cellIs" dxfId="272" priority="175" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H20:H22 H24:H73">
+    <cfRule type="cellIs" dxfId="89" priority="55" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="56" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="57" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I39 I9:I10">
-    <cfRule type="cellIs" dxfId="269" priority="169" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I20 I24:I73">
+    <cfRule type="cellIs" dxfId="86" priority="49" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="50" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="51" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="266" priority="163" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J20 J24:J73">
+    <cfRule type="cellIs" dxfId="83" priority="46" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="47" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="48" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="263" priority="166" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H20:H22 H24:H73">
+    <cfRule type="cellIs" dxfId="80" priority="43" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="44" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="45" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I3">
-    <cfRule type="cellIs" dxfId="260" priority="160" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H20:H22 H24:H73">
+    <cfRule type="cellIs" dxfId="77" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H22 H24:H73">
+    <cfRule type="cellIs" dxfId="74" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="36" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="257" priority="154" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="68" priority="31" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="33" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="254" priority="157" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="158" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="159" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
-    <cfRule type="cellIs" dxfId="251" priority="151" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="248" priority="148" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="149" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="150" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="245" priority="145" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I5">
-    <cfRule type="cellIs" dxfId="242" priority="142" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="143" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="144" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="239" priority="139" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="140" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="141" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="236" priority="136" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="137" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="138" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="233" priority="133" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="134" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="135" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="230" priority="130" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="131" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="132" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
-    <cfRule type="cellIs" dxfId="227" priority="127" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="128" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="129" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="224" priority="124" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="125" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="126" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="221" priority="121" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="122" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="123" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="218" priority="118" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="119" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="120" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="215" priority="115" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="116" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="117" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="cellIs" dxfId="212" priority="112" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="113" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="114" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="209" priority="109" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="110" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="111" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="206" priority="106" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="107" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="108" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="203" priority="103" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="104" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="105" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="200" priority="100" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="101" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="102" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="cellIs" dxfId="197" priority="97" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="98" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="99" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="191" priority="94" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="95" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="96" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="185" priority="91" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="92" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="93" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="179" priority="88" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="89" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="90" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="173" priority="85" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="86" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="87" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="167" priority="82" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="84" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="161" priority="79" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="80" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="81" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="155" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="149" priority="73" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="74" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="75" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="143" priority="70" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="71" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="137" priority="67" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="68" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="69" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="131" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="66" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="125" priority="61" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="63" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="119" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="113" priority="55" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="56" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="57" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="107" priority="52" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="53" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="54" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="101" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="50" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="95" priority="46" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="47" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="48" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="89" priority="43" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="83" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="77" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="39" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="65" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -4909,18 +6366,18 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -4931,7 +6388,7 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -4942,18 +6399,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -4964,7 +6421,7 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -4975,7 +6432,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -4987,19 +6444,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K73">
       <formula1>"是,否,不需要,未能重现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I73">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C73">
       <formula1>"支票系统,富侨仓库系统,钢管厂系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D73">
       <formula1>"新增需求,需求变更,存在问题"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H73">
       <formula1>"未领取,检查中,完成,不需要修改,挂起"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5014,13 +6471,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>495300</xdr:rowOff>
@@ -5039,13 +6496,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>523875</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>485775</xdr:rowOff>
@@ -5064,13 +6521,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>561975</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>1095375</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>485775</xdr:rowOff>
@@ -5089,13 +6546,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>1600200</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>1990725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>485775</xdr:rowOff>
@@ -5114,13 +6571,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>1133475</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>12</xdr:col>
                 <xdr:colOff>1562100</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>495300</xdr:rowOff>

--- a/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
+++ b/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>是</t>
   </si>
@@ -286,6 +286,118 @@
   </si>
   <si>
     <t>发票审批流程需要修改，提交后直接给财务经理审批。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票模板编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要模块拷贝功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票录入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要重新打印功能。 把查询功能放到发票单据里去，输入凭证号按回车，会自动读入对应单据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按回车键总金额把最后两位当做小数位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票录入 - 打印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小写（小间距）是否可以有千分号？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票录入 - 打印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票金额(大间距)的间距是否可以改变？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票模板编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板设计属性名可以显示中文？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员不能查询，只可以看到‘发票录入’。录入查询功能可以开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个操作员的公共账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以授权特定一台电脑？放一个文件在某个位置， 每次登陆系统去检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票查询 - 导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出日期能否改为yyyy-mm-dd, 金额有千分号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能改进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否把archive 数据表-由于性能问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库条码不能对应实时库存报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末数量为0但系期末金额还有几千</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以single login？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -405,49 +517,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="360">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
+  <dxfs count="324">
     <dxf>
       <font>
         <condense val="0"/>
@@ -580,228 +650,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
       </font>
     </dxf>
     <dxf>
@@ -3606,8 +3454,8 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4504,12 +4352,22 @@
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
@@ -4519,12 +4377,22 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
@@ -4534,12 +4402,22 @@
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
@@ -4549,12 +4427,22 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
@@ -4564,12 +4452,22 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
@@ -4579,12 +4477,22 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
@@ -4594,12 +4502,22 @@
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="8"/>
@@ -4609,12 +4527,22 @@
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="8"/>
@@ -4624,12 +4552,22 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="8"/>
@@ -4639,12 +4577,22 @@
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8"/>
@@ -4654,12 +4602,22 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
@@ -4669,12 +4627,22 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
@@ -4684,12 +4652,22 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
@@ -4699,12 +4677,22 @@
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41979</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -5256,1190 +5244,1190 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K2:K8 K10:K12">
-    <cfRule type="cellIs" dxfId="359" priority="367" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="367" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="368" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="368" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="369" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="369" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H12 H16:H19">
-    <cfRule type="cellIs" dxfId="356" priority="370" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="370" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="371" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="372" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="372" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="353" priority="364" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="364" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="365" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="365" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="366" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="366" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K19">
-    <cfRule type="cellIs" dxfId="350" priority="358" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="358" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="359" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="359" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="360" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="360" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H10 H16:H19">
-    <cfRule type="cellIs" dxfId="347" priority="361" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="361" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="362" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="362" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="363" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="363" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="344" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="349" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="350" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="351" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="341" priority="352" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="352" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="353" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="354" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="354" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="338" priority="346" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="346" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="347" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="348" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="335" priority="340" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="340" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="341" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="341" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="342" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="342" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="332" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="343" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="344" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="345" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="329" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="337" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="338" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="338" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="339" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="326" priority="334" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="334" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="335" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="336" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="336" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="323" priority="331" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="331" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="332" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="332" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="333" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="320" priority="328" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="328" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="329" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="330" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="330" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="317" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="325" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="326" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="326" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="327" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="327" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="314" priority="322" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="322" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="323" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="324" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="324" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="311" priority="319" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="319" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="320" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="320" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="321" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="321" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="308" priority="316" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="316" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="317" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="318" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="305" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="313" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="314" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="314" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="315" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="302" priority="310" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="310" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="311" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="312" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="312" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="299" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="307" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="308" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="308" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="309" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="296" priority="304" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="304" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="305" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="306" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="306" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="293" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="301" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="302" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="302" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="303" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="290" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="298" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="299" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="300" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="287" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="295" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="296" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="296" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="297" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="284" priority="292" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="292" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="293" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="294" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="294" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="281" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="289" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="290" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="290" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="291" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="278" priority="286" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="286" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="287" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="288" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="288" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="275" priority="283" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="283" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="284" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="284" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="285" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="285" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="272" priority="280" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="280" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="281" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="281" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="282" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="282" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="269" priority="277" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="277" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="278" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="278" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="279" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="279" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="266" priority="274" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="274" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="275" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="276" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="276" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="263" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="271" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="272" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="273" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="260" priority="268" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="268" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="269" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="270" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="270" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="257" priority="265" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="265" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="266" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="266" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="267" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="254" priority="262" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="262" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="263" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="264" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="264" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="251" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="259" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="260" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="260" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="261" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="248" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="253" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="254" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="254" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="255" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="245" priority="250" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="250" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="251" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="252" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="252" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="242" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="247" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="248" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="248" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="249" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="239" priority="244" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="244" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="245" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="246" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="236" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="241" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="242" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="242" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="243" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="233" priority="238" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="238" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="239" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="240" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="240" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="230" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="235" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="236" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="236" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="237" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="227" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="190" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="192" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="224" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="229" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="230" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="231" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="221" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="226" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="227" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="228" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="228" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="cellIs" dxfId="218" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="223" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="224" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="224" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="225" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="215" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="220" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="221" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="222" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="212" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="217" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="218" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="219" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="209" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="172" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="174" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="206" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="211" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="212" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="213" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="203" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="208" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="209" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="210" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="200" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="205" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="206" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="207" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="197" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="202" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="203" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="204" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="194" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="199" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="200" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="201" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="191" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="156" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="188" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="193" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="194" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="195" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="185" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="187" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="188" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="189" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="182" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="184" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="185" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="186" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="179" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="181" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="182" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="183" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="176" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="178" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="179" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="180" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="175" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="176" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="177" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="170" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="144" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="167" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="166" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="167" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="168" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="164" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="163" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="164" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="165" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="161" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="160" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="161" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="162" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="158" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="157" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="158" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="159" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="151" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="152" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="149" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="150" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="145" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="146" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="147" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="146" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="139" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="140" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="141" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="143" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="136" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="137" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="138" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="140" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="133" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="134" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="135" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="130" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="131" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="132" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="127" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="128" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="129" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="124" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="125" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="126" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="121" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="122" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="123" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="118" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="119" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="120" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="122" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="115" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="116" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="117" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="119" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="112" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="113" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="114" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="109" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="110" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="111" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="106" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="107" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="108" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="103" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="104" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="105" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="100" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="101" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="102" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="97" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="98" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="99" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="94" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="95" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="96" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="98" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="95" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K73">
-    <cfRule type="cellIs" dxfId="92" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="89" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 I24:I73">
-    <cfRule type="cellIs" dxfId="86" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20 J24:J73">
-    <cfRule type="cellIs" dxfId="83" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="80" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="77" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="74" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="71" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="68" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
+++ b/trunk/hot-deploy/partner/document/系统需求问题总表20140906.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="97">
   <si>
     <t>是</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>是否可以single login？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名：002，密码：123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过限制IP登陆，请提供IP地址。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要修改</t>
+  </si>
+  <si>
+    <t>请在xls中设置。导出日期格式应该和本地xls配置有关。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +532,70 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="324">
+  <dxfs count="333">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3454,8 +3532,8 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:F37"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4368,12 +4446,24 @@
       <c r="F24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>41990</v>
+      </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4393,12 +4483,24 @@
       <c r="F25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
+      <c r="G25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>41990</v>
+      </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4418,12 +4520,24 @@
       <c r="F26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
+      <c r="G26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>41990</v>
+      </c>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,12 +4557,24 @@
       <c r="F27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>41990</v>
+      </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4468,12 +4594,24 @@
       <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
+      <c r="G28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>41990</v>
+      </c>
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4493,12 +4631,24 @@
       <c r="F29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="G29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>41990</v>
+      </c>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4518,12 +4668,24 @@
       <c r="F30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>41990</v>
+      </c>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4543,12 +4705,24 @@
       <c r="F31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
+      <c r="G31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>41990</v>
+      </c>
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4568,12 +4742,24 @@
       <c r="F32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
+      <c r="G32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>41990</v>
+      </c>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4593,12 +4779,24 @@
       <c r="F33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
+      <c r="G33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="9">
+        <v>41990</v>
+      </c>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -5244,1190 +5442,1190 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K2:K8 K10:K12">
-    <cfRule type="cellIs" dxfId="323" priority="367" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="367" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="368" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="368" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="369" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="369" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H12 H16:H19">
-    <cfRule type="cellIs" dxfId="320" priority="370" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="370" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="371" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="372" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="372" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="317" priority="364" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="364" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="365" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="365" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="366" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="366" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K19">
-    <cfRule type="cellIs" dxfId="314" priority="358" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="358" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="359" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="359" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="360" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="360" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H10 H16:H19">
-    <cfRule type="cellIs" dxfId="311" priority="361" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="361" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="362" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="362" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="363" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="363" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="308" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="349" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="350" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="351" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="305" priority="352" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="352" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="353" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="354" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="354" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="302" priority="346" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="346" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="347" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="348" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="299" priority="340" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="340" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="341" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="341" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="342" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="342" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="296" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="343" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="344" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="345" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="293" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="337" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="338" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="338" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="339" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="290" priority="334" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="334" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="335" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="336" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="336" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="287" priority="331" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="331" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="332" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="332" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="333" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="284" priority="328" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="328" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="329" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="330" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="330" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="281" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="325" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="326" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="326" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="327" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="327" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="278" priority="322" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="322" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="323" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="324" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="324" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="275" priority="319" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="319" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="320" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="320" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="321" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="321" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="272" priority="316" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="316" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="317" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="318" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="269" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="313" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="314" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="314" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="315" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="266" priority="310" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="310" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="311" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="312" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="312" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="263" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="307" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="308" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="308" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="309" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="260" priority="304" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="304" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="305" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="306" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="306" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="257" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="301" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="302" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="302" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="303" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="254" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="298" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="299" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="300" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="251" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="295" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="296" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="296" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="297" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="248" priority="292" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="292" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="293" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="294" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="294" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="245" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="289" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="290" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="290" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="291" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="242" priority="286" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="286" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="287" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="288" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="288" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="239" priority="283" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="283" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="284" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="284" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="285" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="285" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="236" priority="280" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="280" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="281" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="281" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="282" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="282" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="233" priority="277" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="277" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="278" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="278" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="279" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="279" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="230" priority="274" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="274" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="275" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="276" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="276" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="227" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="271" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="272" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="273" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="224" priority="268" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="268" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="269" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="270" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="270" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="221" priority="265" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="265" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="266" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="266" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="267" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="218" priority="262" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="262" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="263" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="264" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="264" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="215" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="259" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="260" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="260" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="261" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="212" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="253" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="254" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="254" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="255" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="209" priority="250" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="250" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="251" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="252" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="252" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="206" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="247" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="248" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="248" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="249" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="203" priority="244" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="244" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="245" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="246" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="200" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="241" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="242" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="242" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="243" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="197" priority="238" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="238" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="239" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="240" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="240" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="194" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="235" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="236" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="236" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="237" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="191" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="190" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="191" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="192" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="188" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="229" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="230" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="231" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="185" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="226" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="227" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="228" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="228" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="cellIs" dxfId="182" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="223" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="224" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="224" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="225" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="179" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="220" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="221" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="222" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="176" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="217" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="218" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="219" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="173" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="172" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="173" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="174" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="170" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="211" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="212" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="213" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="167" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="208" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="209" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="210" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="164" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="205" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="206" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="207" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="161" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="202" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="203" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="204" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="158" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="199" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="200" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="201" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="154" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="155" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="156" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="152" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="193" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="194" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="195" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="149" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="187" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="188" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="189" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="146" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="184" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="185" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="186" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="143" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="181" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="182" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="183" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="140" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="178" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="179" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="180" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="137" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="175" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="176" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="177" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="131" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="166" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="167" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="168" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="128" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="163" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="164" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="165" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="125" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="160" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="161" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="162" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="122" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="157" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="158" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="159" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="119" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="151" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="152" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="153" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="116" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="148" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="149" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="150" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="113" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="145" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="146" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="147" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="110" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="139" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="140" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="141" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="107" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="136" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="137" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="138" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="104" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="133" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="134" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="135" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="101" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="130" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="131" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="132" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="98" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="127" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="128" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="129" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="95" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="124" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="125" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="126" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="92" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="121" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="122" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="123" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="89" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="119" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="120" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="86" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="115" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="116" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="117" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="83" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="112" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="113" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="114" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="80" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="109" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="110" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="111" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="77" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="107" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="108" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="74" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="103" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="104" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="105" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="71" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="100" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="101" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="102" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="68" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="97" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="98" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="99" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="65" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="94" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="96" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="58" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K73">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 I24:I73">
-    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20 J24:J73">
-    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22 H24:H73">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
